--- a/state-code-gen/m1/Flow/0200_Preprocess.xlsx
+++ b/state-code-gen/m1/Flow/0200_Preprocess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -250,10 +250,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -537,106 +537,106 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="4"/>
+    <col min="1" max="16384" width="15.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="165.75" customHeight="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="37.5">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="37.5">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="37.5">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -651,7 +651,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -677,15 +677,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
